--- a/biology/Botanique/Segregatospumellaceae/Segregatospumellaceae.xlsx
+++ b/biology/Botanique/Segregatospumellaceae/Segregatospumellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Segregatospumellaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Segregatospumellales[1].
-Ce biflagellé appartient à une lignée phylogénétique très particulière au sein des Chrysophycées.[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Segregatospumellaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Chrysophyceae et de l'ordre des Segregatospumellales.
+Ce biflagellé appartient à une lignée phylogénétique très particulière au sein des Chrysophycées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Segregatospumella, dérivé du latin segregatio-, séparation, spumo, écume, et du suffixe ella, petit, littéralement « petite écume isolée », qui indique la non-relation phylogénétique de ce taxon avec toutes les autres lignées connues de Chrysophyceae. Ce genre est interprété, par les microbiologistes, comme le point d'origine taxonomique de ce qu'ils nomment « Spumella-like Flagellates » / « flagellés de type Spumella »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Segregatospumella, dérivé du latin segregatio-, séparation, spumo, écume, et du suffixe ella, petit, littéralement « petite écume isolée », qui indique la non-relation phylogénétique de ce taxon avec toutes les autres lignées connues de Chrysophyceae. Ce genre est interprété, par les microbiologistes, comme le point d'origine taxonomique de ce qu'ils nomment « Spumella-like Flagellates » / « flagellés de type Spumella ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Segregatospumella est un biflagellé bactérivore, non photosynthétique, non colonial, non écailleux.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (1er février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (1er février 2022) :
 Segregatospumella  Boenigk &amp; Grossmann, 2016</t>
         </is>
       </c>
